--- a/demo/template_files/PhpOfficeTemplate_Excel.xlsx
+++ b/demo/template_files/PhpOfficeTemplate_Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9600" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="template1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>FOREIGN WORKERS INFORMATION FOR MALAYSIA</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>${my_addr}</t>
+  </si>
+  <si>
+    <t>Empty Space Testing</t>
+  </si>
+  <si>
+    <t>${empty_space_testing}</t>
   </si>
 </sst>
 </file>
@@ -211,10 +217,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -259,6 +265,75 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -267,51 +342,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -320,24 +350,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,57 +402,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -424,19 +430,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,157 +598,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,6 +819,47 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,6 +869,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,71 +914,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -919,148 +925,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1816,10 +1822,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:H9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15"/>
@@ -2054,26 +2060,45 @@
       <c r="M11" s="28"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:13">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="29"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="28"/>
+    </row>
+    <row r="13" ht="18" customHeight="1" spans="1:13">
+      <c r="A13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="31">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A4:B4"/>
@@ -2103,6 +2128,8 @@
     <mergeCell ref="C11:M11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:M12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:M13"/>
   </mergeCells>
   <pageMargins left="0.16" right="0.16" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="landscape"/>
